--- a/results/mp/deberta/corona/confidence/42/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-0.2/avg_0.002_scores.xlsx
@@ -127,18 +127,18 @@
     <t>healthy</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
@@ -154,10 +154,10 @@
     <t>worth</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>credit</t>
@@ -1555,25 +1555,25 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.658008658008658</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L25">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="N25">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O25">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1581,13 +1581,13 @@
         <v>38</v>
       </c>
       <c r="K26">
-        <v>0.6521739130434783</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="N26">
         <v>0.9399999999999999</v>
@@ -1599,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1607,25 +1607,25 @@
         <v>39</v>
       </c>
       <c r="K27">
-        <v>0.6444444444444445</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L27">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="M27">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1633,13 +1633,13 @@
         <v>40</v>
       </c>
       <c r="K28">
-        <v>0.6428571428571429</v>
+        <v>0.6359832635983264</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1789,25 +1789,25 @@
         <v>46</v>
       </c>
       <c r="K34">
-        <v>0.5548780487804879</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="L34">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>146</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1815,25 +1815,25 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>0.5441176470588235</v>
+        <v>0.5352941176470588</v>
       </c>
       <c r="L35">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="M35">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="N35">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>31</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="10:17">
